--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AR_50_9.xlsx
@@ -369,202 +369,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>1.910666127459315</v>
-      </c>
-      <c r="D3">
-        <v>0.6492937867006665</v>
-      </c>
       <c r="E3">
-        <v>0.1715429114845346</v>
+        <v>0.1715429114845124</v>
       </c>
       <c r="F3">
-        <v>0.1715429114845346</v>
+        <v>0.1715429114845124</v>
       </c>
       <c r="G3">
-        <v>0.1715429114845346</v>
+        <v>0.1715429114845124</v>
       </c>
       <c r="H3">
-        <v>0.1715429114845346</v>
+        <v>0.1715429114845124</v>
       </c>
       <c r="I3">
-        <v>0.1715429114845346</v>
+        <v>0.1715429114845124</v>
       </c>
       <c r="J3">
-        <v>0.1715429114845346</v>
+        <v>0.1715429114845124</v>
       </c>
       <c r="K3">
         <v>0.1715429114845346</v>
@@ -692,26 +683,11 @@
       <c r="AZ3">
         <v>0.1715429114845346</v>
       </c>
-      <c r="BA3">
-        <v>0.1715429114845346</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>0.8017612787714512</v>
-      </c>
-      <c r="D4">
-        <v>0.5139160755216698</v>
-      </c>
-      <c r="E4">
-        <v>0.2478029645461621</v>
-      </c>
-      <c r="F4">
-        <v>0.8509156074281155</v>
-      </c>
       <c r="G4">
         <v>0.8004663283405655</v>
       </c>
@@ -850,32 +826,11 @@
       <c r="AZ4">
         <v>0.8004663283405655</v>
       </c>
-      <c r="BA4">
-        <v>0.8004663283405655</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>1.601971089737453</v>
-      </c>
-      <c r="D5">
-        <v>0.5352118886375878</v>
-      </c>
-      <c r="E5">
-        <v>1.644235225888124</v>
-      </c>
-      <c r="F5">
-        <v>3.385308094994111</v>
-      </c>
-      <c r="G5">
-        <v>4.590949402546851</v>
-      </c>
-      <c r="H5">
-        <v>4.859624274446639</v>
-      </c>
       <c r="I5">
         <v>5.253783907501819</v>
       </c>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>5.253783907501819</v>
       </c>
-      <c r="BA5">
-        <v>5.253783907501819</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>0.6394277430073148</v>
-      </c>
-      <c r="F6">
-        <v>1.431136469000394</v>
-      </c>
-      <c r="G6">
-        <v>4.293246409280194</v>
-      </c>
-      <c r="H6">
-        <v>5.315346333183713</v>
-      </c>
-      <c r="I6">
-        <v>6.528307842404013</v>
-      </c>
-      <c r="J6">
-        <v>4.695210483877932</v>
-      </c>
       <c r="K6">
         <v>3.522405026196918</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>3.522405026196918</v>
       </c>
-      <c r="BA6">
-        <v>3.522405026196918</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>2.479023352306786</v>
-      </c>
-      <c r="H7">
-        <v>3.213779006024886</v>
-      </c>
-      <c r="I7">
-        <v>5.459062041168194</v>
-      </c>
-      <c r="J7">
-        <v>5.53417917428578</v>
-      </c>
       <c r="K7">
-        <v>2.728164648391185</v>
+        <v>0.5784444854042281</v>
       </c>
       <c r="L7">
-        <v>1.881828690227838</v>
+        <v>1.133560223479058</v>
       </c>
       <c r="M7">
         <v>1.656063945467268</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>1.656063945467268</v>
       </c>
-      <c r="BA7">
-        <v>1.656063945467268</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>4.199260340732258</v>
-      </c>
-      <c r="J8">
-        <v>3.802301842770439</v>
-      </c>
       <c r="K8">
-        <v>4.647173536073046</v>
+        <v>1.962049292219414</v>
       </c>
       <c r="L8">
-        <v>4.961809145011253</v>
+        <v>1.985690391709771</v>
       </c>
       <c r="M8">
-        <v>5.01424274443687</v>
+        <v>2.529895848567842</v>
       </c>
       <c r="N8">
-        <v>3.853158971520942</v>
+        <v>3.633318781899142</v>
       </c>
       <c r="O8">
         <v>4.06235252733802</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>4.06235252733802</v>
       </c>
-      <c r="BA8">
-        <v>4.06235252733802</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>2.910552143967315</v>
-      </c>
       <c r="L9">
-        <v>2.956230675103044</v>
+        <v>2.090102686531425</v>
       </c>
       <c r="M9">
-        <v>5.465248910094189</v>
+        <v>2.205381251914007</v>
       </c>
       <c r="N9">
-        <v>3.939643418070804</v>
+        <v>2.715291551682419</v>
       </c>
       <c r="O9">
-        <v>4.963935273957154</v>
+        <v>4.060884847379076</v>
       </c>
       <c r="P9">
-        <v>2.990570386122382</v>
+        <v>3.057638025163611</v>
       </c>
       <c r="Q9">
         <v>3.05427116350534</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>3.05427116350534</v>
       </c>
-      <c r="BA9">
-        <v>3.05427116350534</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>3.509224137681799</v>
-      </c>
       <c r="N10">
-        <v>2.81416919680475</v>
+        <v>2.448864397591044</v>
       </c>
       <c r="O10">
-        <v>4.46816165810493</v>
+        <v>2.792143403677905</v>
       </c>
       <c r="P10">
-        <v>2.094311822326111</v>
+        <v>2.42782168586293</v>
       </c>
       <c r="Q10">
-        <v>1.973747512448343</v>
+        <v>2.270469368501771</v>
       </c>
       <c r="R10">
-        <v>2.306783028297055</v>
+        <v>2.319057151538662</v>
       </c>
       <c r="S10">
         <v>2.305809238174006</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>2.305809238174006</v>
       </c>
-      <c r="BA10">
-        <v>2.305809238174006</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>3.272418591478932</v>
-      </c>
       <c r="P11">
-        <v>2.460617773988782</v>
+        <v>2.543955481275106</v>
       </c>
       <c r="Q11">
-        <v>1.839042610474695</v>
+        <v>2.507859322024841</v>
       </c>
       <c r="R11">
-        <v>2.421714466791935</v>
+        <v>2.508920621023392</v>
       </c>
       <c r="S11">
-        <v>2.420751168230217</v>
+        <v>2.467161166346266</v>
       </c>
       <c r="T11">
-        <v>2.547114352819779</v>
+        <v>2.536029549059826</v>
       </c>
       <c r="U11">
         <v>2.509111342826809</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>2.509111342826809</v>
       </c>
-      <c r="BA11">
-        <v>2.509111342826809</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>2.348967669248436</v>
-      </c>
       <c r="R12">
-        <v>2.444179392016288</v>
+        <v>2.526834392238175</v>
       </c>
       <c r="S12">
-        <v>2.444126505903288</v>
+        <v>2.518575433256176</v>
       </c>
       <c r="T12">
-        <v>2.610083338243396</v>
+        <v>2.546671316138061</v>
       </c>
       <c r="U12">
-        <v>2.434773703516147</v>
+        <v>2.480855794925163</v>
       </c>
       <c r="V12">
-        <v>3.218336425087465</v>
+        <v>3.025024236774643</v>
       </c>
       <c r="W12">
-        <v>3.220130655314013</v>
+        <v>3.120740332206995</v>
       </c>
       <c r="X12">
-        <v>3.297011904810243</v>
+        <v>3.279355759764568</v>
       </c>
       <c r="Y12">
         <v>3.296731496509198</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>3.296731496509198</v>
       </c>
-      <c r="BA12">
-        <v>3.296731496509198</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>2.502232950944761</v>
-      </c>
-      <c r="S13">
-        <v>2.50204401577856</v>
-      </c>
       <c r="T13">
-        <v>2.573362391321621</v>
+        <v>2.530440776250154</v>
       </c>
       <c r="U13">
-        <v>2.444528059626938</v>
+        <v>2.518755579319643</v>
       </c>
       <c r="V13">
-        <v>3.314705933595397</v>
+        <v>2.69389938681992</v>
       </c>
       <c r="W13">
-        <v>3.315294106121924</v>
+        <v>2.775533179497169</v>
       </c>
       <c r="X13">
-        <v>3.699746550608474</v>
+        <v>3.107596903291299</v>
       </c>
       <c r="Y13">
-        <v>3.698824700849923</v>
+        <v>3.221757900820066</v>
       </c>
       <c r="Z13">
-        <v>2.926968792950002</v>
+        <v>2.945303709067959</v>
       </c>
       <c r="AA13">
-        <v>2.848273197519613</v>
+        <v>2.891533899000343</v>
       </c>
       <c r="AB13">
-        <v>2.783907785663198</v>
+        <v>2.827707622797226</v>
       </c>
       <c r="AC13">
         <v>2.861315725866587</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>2.861315725866587</v>
       </c>
-      <c r="BA13">
-        <v>2.861315725866587</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>2.544195962745732</v>
-      </c>
-      <c r="U14">
-        <v>2.503468332192149</v>
-      </c>
-      <c r="V14">
-        <v>3.098959502566578</v>
-      </c>
       <c r="W14">
-        <v>3.099017295428119</v>
+        <v>2.604201945499174</v>
       </c>
       <c r="X14">
-        <v>3.423708907059742</v>
+        <v>2.657071530429667</v>
       </c>
       <c r="Y14">
-        <v>3.648861866706321</v>
+        <v>2.678174398932609</v>
       </c>
       <c r="Z14">
-        <v>2.421686529599998</v>
+        <v>2.591074440292807</v>
       </c>
       <c r="AA14">
-        <v>2.217691096581187</v>
+        <v>2.545843589346886</v>
       </c>
       <c r="AB14">
-        <v>1.798452007460738</v>
+        <v>2.413544192054795</v>
       </c>
       <c r="AC14">
-        <v>2.689890129818551</v>
+        <v>2.631992339577627</v>
       </c>
       <c r="AD14">
-        <v>2.561163765278374</v>
+        <v>2.552688975800033</v>
       </c>
       <c r="AE14">
-        <v>2.637867031864882</v>
+        <v>2.618329006605924</v>
       </c>
       <c r="AF14">
-        <v>1.841406700970061</v>
+        <v>1.790319754067715</v>
       </c>
       <c r="AG14">
         <v>1.790319754067715</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>1.790319754067715</v>
       </c>
-      <c r="BA14">
-        <v>1.790319754067715</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>2.736630398018813</v>
-      </c>
-      <c r="W15">
-        <v>2.736829567199561</v>
-      </c>
-      <c r="X15">
-        <v>2.832192128773769</v>
-      </c>
-      <c r="Y15">
-        <v>3.524437984849604</v>
-      </c>
-      <c r="Z15">
-        <v>2.500873289957539</v>
-      </c>
       <c r="AA15">
-        <v>2.332488136306443</v>
+        <v>2.623024301937549</v>
       </c>
       <c r="AB15">
-        <v>1.830628109954868</v>
+        <v>2.60322048149817</v>
       </c>
       <c r="AC15">
-        <v>2.829545434626057</v>
+        <v>2.640819364776803</v>
       </c>
       <c r="AD15">
-        <v>2.629169437381118</v>
+        <v>2.616345720823721</v>
       </c>
       <c r="AE15">
-        <v>2.829622026216927</v>
+        <v>2.671430903007876</v>
       </c>
       <c r="AF15">
-        <v>2.136136986781323</v>
+        <v>1.691013991470625</v>
       </c>
       <c r="AG15">
-        <v>2.136336055115096</v>
+        <v>2.153309886824961</v>
       </c>
       <c r="AH15">
-        <v>2.133537709052757</v>
+        <v>2.130407351599706</v>
       </c>
       <c r="AI15">
-        <v>2.133808466953946</v>
+        <v>2.137626121054947</v>
       </c>
       <c r="AJ15">
-        <v>2.134077088567254</v>
+        <v>2.339531676162721</v>
       </c>
       <c r="AK15">
         <v>2.339531676162721</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>2.339531676162721</v>
       </c>
-      <c r="BA15">
-        <v>2.339531676162721</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>3.160226481864736</v>
-      </c>
-      <c r="Z16">
-        <v>2.728865655002477</v>
-      </c>
-      <c r="AA16">
-        <v>2.662893021899793</v>
-      </c>
-      <c r="AB16">
-        <v>2.481210404330181</v>
-      </c>
-      <c r="AC16">
-        <v>2.897299849636914</v>
-      </c>
-      <c r="AD16">
-        <v>2.738768296686356</v>
-      </c>
       <c r="AE16">
-        <v>2.89608828811303</v>
+        <v>2.630644791314363</v>
       </c>
       <c r="AF16">
-        <v>2.568381277526788</v>
+        <v>2.558570068847144</v>
       </c>
       <c r="AG16">
-        <v>2.829605202499352</v>
+        <v>2.761341020331276</v>
       </c>
       <c r="AH16">
-        <v>2.829615386320383</v>
+        <v>2.785334366326175</v>
       </c>
       <c r="AI16">
-        <v>2.829704993179227</v>
+        <v>2.891950990452763</v>
       </c>
       <c r="AJ16">
-        <v>2.829971696551858</v>
+        <v>3.941556826710224</v>
       </c>
       <c r="AK16">
-        <v>5.542003005885743</v>
+        <v>4.667362054855917</v>
       </c>
       <c r="AL16">
-        <v>5.54163445616509</v>
+        <v>5.037171918133976</v>
       </c>
       <c r="AM16">
-        <v>5.411659135174118</v>
+        <v>4.951039758187648</v>
       </c>
       <c r="AN16">
-        <v>5.04459987483179</v>
+        <v>4.834496776263886</v>
       </c>
       <c r="AO16">
         <v>4.834496776263886</v>
@@ -2359,61 +2185,43 @@
       <c r="AZ16">
         <v>4.834496776263886</v>
       </c>
-      <c r="BA16">
-        <v>4.834496776263886</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>3.065139924254257</v>
-      </c>
-      <c r="AD17">
-        <v>3.011468399146455</v>
-      </c>
-      <c r="AE17">
-        <v>3.061159939818703</v>
-      </c>
-      <c r="AF17">
-        <v>2.897117459990683</v>
-      </c>
-      <c r="AG17">
-        <v>2.805982251488537</v>
-      </c>
       <c r="AH17">
-        <v>2.805893344706445</v>
+        <v>2.764442819703916</v>
       </c>
       <c r="AI17">
-        <v>2.80590190201333</v>
+        <v>2.919819837356252</v>
       </c>
       <c r="AJ17">
-        <v>2.805914685224775</v>
+        <v>3.134394395265594</v>
       </c>
       <c r="AK17">
-        <v>4.334847174798195</v>
+        <v>3.327089769540992</v>
       </c>
       <c r="AL17">
-        <v>4.334492918226496</v>
+        <v>3.641364543513781</v>
       </c>
       <c r="AM17">
-        <v>4.152343337882791</v>
+        <v>3.481452844954491</v>
       </c>
       <c r="AN17">
-        <v>4.366242242642326</v>
+        <v>2.845322256798233</v>
       </c>
       <c r="AO17">
-        <v>2.778727265168079</v>
+        <v>3.305715257492858</v>
       </c>
       <c r="AP17">
-        <v>3.492022830615338</v>
+        <v>3.153537734543965</v>
       </c>
       <c r="AQ17">
-        <v>3.171701472859723</v>
+        <v>2.838865660558509</v>
       </c>
       <c r="AR17">
-        <v>2.824943501366195</v>
+        <v>2.798216547494237</v>
       </c>
       <c r="AS17">
         <v>2.798216547494237</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>2.798216547494237</v>
       </c>
-      <c r="BA17">
-        <v>2.798216547494237</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>2.753567676926028</v>
-      </c>
-      <c r="AH18">
-        <v>2.75326049823994</v>
-      </c>
-      <c r="AI18">
-        <v>2.753287899055423</v>
-      </c>
-      <c r="AJ18">
-        <v>2.753328933242005</v>
-      </c>
-      <c r="AK18">
-        <v>3.477323587262959</v>
-      </c>
       <c r="AL18">
-        <v>3.477297019800929</v>
+        <v>3.226452504784616</v>
       </c>
       <c r="AM18">
-        <v>2.556812093102501</v>
+        <v>3.20116940334636</v>
       </c>
       <c r="AN18">
-        <v>3.257042933552246</v>
+        <v>3.029622899744266</v>
       </c>
       <c r="AO18">
-        <v>3.673277819245957</v>
+        <v>3.019047171689593</v>
       </c>
       <c r="AP18">
-        <v>3.390454998893877</v>
+        <v>2.935215611250452</v>
       </c>
       <c r="AQ18">
-        <v>3.313336685638868</v>
+        <v>2.377254777217375</v>
       </c>
       <c r="AR18">
-        <v>3.591136243562021</v>
+        <v>2.138412043368865</v>
       </c>
       <c r="AS18">
-        <v>3.285431995518517</v>
+        <v>1.757655717321982</v>
       </c>
       <c r="AT18">
-        <v>1.779426293060404</v>
+        <v>1.831762447564067</v>
       </c>
       <c r="AU18">
-        <v>1.785761317689727</v>
+        <v>1.625773169906108</v>
       </c>
       <c r="AV18">
-        <v>1.580512425878888</v>
+        <v>1.530879676868468</v>
       </c>
       <c r="AW18">
         <v>1.530879676868468</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>1.530879676868468</v>
       </c>
-      <c r="BA18">
-        <v>1.530879676868468</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>3.05793867252222</v>
-      </c>
-      <c r="AL19">
-        <v>3.057870657190453</v>
-      </c>
-      <c r="AM19">
-        <v>2.824085230179429</v>
-      </c>
-      <c r="AN19">
-        <v>2.965780051497702</v>
-      </c>
-      <c r="AO19">
-        <v>2.588975973241636</v>
-      </c>
       <c r="AP19">
-        <v>3.201496076330579</v>
+        <v>2.986397903652205</v>
       </c>
       <c r="AQ19">
-        <v>3.246135701231467</v>
+        <v>2.82910658530624</v>
       </c>
       <c r="AR19">
-        <v>3.598264625020753</v>
+        <v>2.714478023861111</v>
       </c>
       <c r="AS19">
-        <v>3.152442956658308</v>
+        <v>2.633539027099796</v>
       </c>
       <c r="AT19">
-        <v>2.428229002028437</v>
+        <v>2.69124964061378</v>
       </c>
       <c r="AU19">
-        <v>2.432837764269657</v>
+        <v>2.42082970885531</v>
       </c>
       <c r="AV19">
-        <v>2.455689670679972</v>
+        <v>2.01742511619909</v>
       </c>
       <c r="AW19">
-        <v>2.125082674338974</v>
+        <v>2.159361127638926</v>
       </c>
       <c r="AX19">
-        <v>2.103671369075166</v>
+        <v>2.104676416355189</v>
       </c>
       <c r="AY19">
-        <v>2.041299972273869</v>
+        <v>2.030491763452114</v>
       </c>
       <c r="AZ19">
-        <v>2.057287156976417</v>
-      </c>
-      <c r="BA19">
         <v>2.060859685319461</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>2.96191223951523</v>
-      </c>
-      <c r="AP20">
-        <v>3.121207567383077</v>
-      </c>
-      <c r="AQ20">
-        <v>3.10005601238581</v>
-      </c>
-      <c r="AR20">
-        <v>3.126867395662125</v>
-      </c>
-      <c r="AS20">
-        <v>2.15757311153093</v>
-      </c>
       <c r="AT20">
-        <v>2.518578726149867</v>
+        <v>2.711808184127418</v>
       </c>
       <c r="AU20">
-        <v>2.517842734307441</v>
+        <v>2.79751891585911</v>
       </c>
       <c r="AV20">
-        <v>2.560305597906076</v>
+        <v>2.787508609954714</v>
       </c>
       <c r="AW20">
-        <v>2.571624708172782</v>
+        <v>2.780289798993185</v>
       </c>
       <c r="AX20">
-        <v>1.836416298628496</v>
+        <v>2.754798876280251</v>
       </c>
       <c r="AY20">
-        <v>2.66908700341888</v>
+        <v>2.559374235215039</v>
       </c>
       <c r="AZ20">
-        <v>3.10450669425526</v>
-      </c>
-      <c r="BA20">
-        <v>3.217185105987364</v>
+        <v>2.733459627814305</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>2.872002399068885</v>
-      </c>
-      <c r="AT21">
-        <v>2.735287614185022</v>
-      </c>
-      <c r="AU21">
-        <v>2.736200571155956</v>
-      </c>
-      <c r="AV21">
-        <v>2.721008165256311</v>
-      </c>
-      <c r="AW21">
-        <v>2.476830710418088</v>
-      </c>
       <c r="AX21">
-        <v>1.53736133443374</v>
+        <v>2.825169002342753</v>
       </c>
       <c r="AY21">
-        <v>2.979500251857115</v>
+        <v>2.70120649680623</v>
       </c>
       <c r="AZ21">
-        <v>3.67128627772273</v>
-      </c>
-      <c r="BA21">
-        <v>4.231585801128745</v>
+        <v>2.76671919604734</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>2.598680204736348</v>
-      </c>
-      <c r="AX22">
-        <v>2.359091587209239</v>
-      </c>
-      <c r="AY22">
-        <v>2.679588348880224</v>
-      </c>
-      <c r="AZ22">
-        <v>2.858364847005879</v>
-      </c>
-      <c r="BA22">
-        <v>4.411906031720525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>3.282049299453726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>2.585454129751663</v>
       </c>
       <c r="AG17">
-        <v>-0.4891791466461126</v>
+        <v>-0.2157902153365976</v>
       </c>
       <c r="AH17">
         <v>-0.2228847697281378</v>
@@ -2415,19 +2415,19 @@
         <v>2.671828487424377</v>
       </c>
       <c r="AG18">
-        <v>1.156476476708135</v>
+        <v>1.778986693236351</v>
       </c>
       <c r="AH18">
-        <v>1.982741503124119</v>
+        <v>1.685248597850153</v>
       </c>
       <c r="AI18">
-        <v>2.240953541724267</v>
+        <v>1.823608346867833</v>
       </c>
       <c r="AJ18">
-        <v>-0.4532848472497908</v>
+        <v>-0.3319353158441452</v>
       </c>
       <c r="AK18">
-        <v>-0.7941560676977599</v>
+        <v>-0.8983050033085416</v>
       </c>
       <c r="AL18">
         <v>-1.165854108406617</v>
@@ -2486,31 +2486,31 @@
         <v>2.803093942632229</v>
       </c>
       <c r="AG19">
-        <v>2.249879257904497</v>
+        <v>2.390667789626777</v>
       </c>
       <c r="AH19">
-        <v>2.210817939147369</v>
+        <v>2.30990627722012</v>
       </c>
       <c r="AI19">
-        <v>2.598498189609066</v>
+        <v>2.215264539440076</v>
       </c>
       <c r="AJ19">
-        <v>2.066462658785673</v>
+        <v>2.167555787027031</v>
       </c>
       <c r="AK19">
-        <v>2.320050994894562</v>
+        <v>2.057272936029797</v>
       </c>
       <c r="AL19">
-        <v>2.782217648649521</v>
+        <v>1.819118980963297</v>
       </c>
       <c r="AM19">
-        <v>3.392010093835562</v>
+        <v>2.70968435494483</v>
       </c>
       <c r="AN19">
-        <v>0.9477102747197819</v>
+        <v>0.8695326511122925</v>
       </c>
       <c r="AO19">
-        <v>2.34069710769782</v>
+        <v>2.400664632687732</v>
       </c>
       <c r="AP19">
         <v>2.501311189006916</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>2.589306146837123</v>
-      </c>
       <c r="AJ20">
-        <v>2.376914591354051</v>
+        <v>2.43467012368126</v>
       </c>
       <c r="AK20">
-        <v>2.342399795836103</v>
+        <v>2.347652166237757</v>
       </c>
       <c r="AL20">
-        <v>2.299305719983957</v>
+        <v>2.271841120362716</v>
       </c>
       <c r="AM20">
-        <v>2.595837839692172</v>
+        <v>2.313497876955384</v>
       </c>
       <c r="AN20">
-        <v>1.83067479293082</v>
+        <v>1.760401078468798</v>
       </c>
       <c r="AO20">
-        <v>2.116186509693896</v>
+        <v>2.31898124487091</v>
       </c>
       <c r="AP20">
-        <v>2.985901060752827</v>
+        <v>2.549024517027965</v>
       </c>
       <c r="AQ20">
-        <v>2.735256324140778</v>
+        <v>2.708856304473262</v>
       </c>
       <c r="AR20">
-        <v>2.222852754198135</v>
+        <v>2.384611583901286</v>
       </c>
       <c r="AS20">
-        <v>0.9259311313598806</v>
+        <v>1.046187480688765</v>
       </c>
       <c r="AT20">
         <v>0.6753076481029074</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>2.472103626029587</v>
-      </c>
       <c r="AN21">
-        <v>2.235256356908888</v>
+        <v>2.212546057349796</v>
       </c>
       <c r="AO21">
-        <v>2.304508042668529</v>
+        <v>2.385201777331791</v>
       </c>
       <c r="AP21">
-        <v>2.335023232586764</v>
+        <v>2.345078545687485</v>
       </c>
       <c r="AQ21">
-        <v>2.169811364059249</v>
+        <v>2.326027472888215</v>
       </c>
       <c r="AR21">
-        <v>1.934107558751452</v>
+        <v>2.068660354597474</v>
       </c>
       <c r="AS21">
-        <v>1.280651803859989</v>
+        <v>1.617728533922569</v>
       </c>
       <c r="AT21">
-        <v>0.7957830962485257</v>
+        <v>1.06367661179847</v>
       </c>
       <c r="AU21">
-        <v>1.324987171138314</v>
+        <v>1.162920200396078</v>
       </c>
       <c r="AV21">
-        <v>-0.007094633234694392</v>
+        <v>0.08046895846371971</v>
       </c>
       <c r="AW21">
-        <v>1.935025917091848</v>
+        <v>1.956836678467866</v>
       </c>
       <c r="AX21">
         <v>2.039329803030121</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>2.163234852468965</v>
-      </c>
       <c r="AR22">
-        <v>2.093784316164227</v>
+        <v>2.129994977843963</v>
       </c>
       <c r="AS22">
-        <v>1.881101095123006</v>
+        <v>1.980449533725981</v>
       </c>
       <c r="AT22">
-        <v>1.754422269754441</v>
+        <v>1.837136202574152</v>
       </c>
       <c r="AU22">
-        <v>1.882659757536698</v>
+        <v>1.752078078216446</v>
       </c>
       <c r="AV22">
-        <v>1.444584248586422</v>
+        <v>1.524741412459951</v>
       </c>
       <c r="AW22">
-        <v>2.004076350201744</v>
+        <v>2.061443511165129</v>
       </c>
       <c r="AX22">
-        <v>2.510359031091491</v>
+        <v>2.272242485304421</v>
       </c>
       <c r="AY22">
-        <v>1.751699155751707</v>
+        <v>1.675092508063591</v>
       </c>
       <c r="AZ22">
-        <v>3.078872076370009</v>
+        <v>3.067084363766437</v>
       </c>
       <c r="BA22">
-        <v>2.43119486791763</v>
+        <v>2.361901723729409</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>1.876128649189646</v>
-      </c>
       <c r="AV23">
-        <v>1.701838250011245</v>
+        <v>1.748747720411892</v>
       </c>
       <c r="AW23">
-        <v>1.908836147942261</v>
+        <v>1.915072997558931</v>
       </c>
       <c r="AX23">
-        <v>1.984706411181114</v>
+        <v>1.927366914802908</v>
       </c>
       <c r="AY23">
-        <v>1.973546706924467</v>
+        <v>1.97109328300884</v>
       </c>
       <c r="AZ23">
-        <v>2.279508996785351</v>
+        <v>2.244137191125728</v>
       </c>
       <c r="BA23">
-        <v>2.421949074001883</v>
+        <v>2.230425161551541</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>1.922283596904206</v>
-      </c>
       <c r="AZ24">
-        <v>2.072298130156969</v>
+        <v>2.028221217124648</v>
       </c>
       <c r="BA24">
-        <v>2.044130602366767</v>
+        <v>2.015554784339746</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>6.277541464866943</v>
+      </c>
+      <c r="G3">
+        <v>4.685841089432219</v>
+      </c>
+      <c r="H3">
+        <v>5.50407996026312</v>
+      </c>
+      <c r="I3">
+        <v>5.261925437969173</v>
+      </c>
+      <c r="J3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="K3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="L3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="M3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="N3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="O3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="P3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="Q3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="R3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="S3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="T3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="U3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="V3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="W3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="X3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="Y3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="Z3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AA3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AB3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AC3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AD3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AE3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AF3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AG3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AH3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AI3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AJ3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AK3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AL3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AM3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AN3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AO3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AP3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AQ3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AR3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AS3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AT3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AU3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AV3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AW3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AX3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AY3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AZ3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="BA3">
+        <v>1.457481710491582</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>5.896808312953783</v>
-      </c>
-      <c r="C4">
-        <v>6.499072917387227</v>
-      </c>
-      <c r="D4">
-        <v>7.465152966818556</v>
-      </c>
-      <c r="E4">
-        <v>7.465152966818556</v>
-      </c>
-      <c r="F4">
-        <v>6.977409046522776</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>6.977409046522776</v>
+        <v>5.907218141265402</v>
       </c>
       <c r="H4">
-        <v>6.977409046522776</v>
+        <v>6.535114773304795</v>
       </c>
       <c r="I4">
-        <v>6.977409046522776</v>
+        <v>6.546022603510737</v>
       </c>
       <c r="J4">
-        <v>6.977409046522776</v>
+        <v>2.925298061139281</v>
       </c>
       <c r="K4">
-        <v>6.977409046522776</v>
+        <v>2.925298061139281</v>
       </c>
       <c r="L4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="M4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="N4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="O4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="P4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="Q4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="R4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="S4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="T4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="U4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="V4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="W4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="X4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="Y4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="Z4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AA4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AB4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AC4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AD4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AE4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AF4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AG4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AH4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AI4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AJ4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AK4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AL4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AM4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AN4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AO4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AP4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AQ4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AR4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AS4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AT4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AU4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AV4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AW4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AX4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AY4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AZ4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="BA4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>7.441962824572235</v>
-      </c>
-      <c r="E5">
-        <v>7.28678647089771</v>
-      </c>
-      <c r="F5">
-        <v>6.333240261802175</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>7.319484411839716</v>
+        <v>5.917486466529609</v>
       </c>
       <c r="H5">
-        <v>7.862909309344301</v>
+        <v>6.325696408067327</v>
       </c>
       <c r="I5">
-        <v>7.862909309344301</v>
+        <v>6.511263427347003</v>
       </c>
       <c r="J5">
-        <v>7.862909309344301</v>
+        <v>5.12051970717502</v>
       </c>
       <c r="K5">
-        <v>7.862909309344301</v>
+        <v>5.068263380731564</v>
       </c>
       <c r="L5">
-        <v>7.862909309344301</v>
+        <v>3.441186410406072</v>
       </c>
       <c r="M5">
-        <v>7.862909309344301</v>
+        <v>3.441186410406072</v>
       </c>
       <c r="N5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="O5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="P5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="Q5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="R5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="S5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="T5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="U5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="V5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="W5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="X5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="Y5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="Z5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AA5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AB5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AC5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AD5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AE5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AF5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AG5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AH5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AI5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AJ5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AK5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AL5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AM5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AN5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AO5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AP5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AQ5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AR5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AS5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AT5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AU5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AV5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AW5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AX5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AY5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AZ5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="BA5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>6.277541464866987</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>4.685841089432219</v>
+        <v>6.075953108106846</v>
       </c>
       <c r="H6">
-        <v>5.504079960263075</v>
+        <v>6.474182887234914</v>
       </c>
       <c r="I6">
-        <v>5.261925437969128</v>
+        <v>6.422943767670297</v>
       </c>
       <c r="J6">
-        <v>1.457481710491537</v>
+        <v>4.950888348161864</v>
       </c>
       <c r="K6">
-        <v>1.457481710491537</v>
+        <v>4.32582882947028</v>
       </c>
       <c r="L6">
-        <v>1.457481710491537</v>
+        <v>3.65682115264816</v>
       </c>
       <c r="M6">
-        <v>1.457481710491537</v>
+        <v>3.608456360804535</v>
       </c>
       <c r="N6">
-        <v>1.457481710491537</v>
+        <v>4.235269442720724</v>
       </c>
       <c r="O6">
-        <v>1.457481710491537</v>
+        <v>4.235269442720724</v>
       </c>
       <c r="P6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="Q6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="R6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="S6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="T6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="U6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="V6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="W6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="X6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="Y6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="Z6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AA6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AB6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AC6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AD6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AE6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AF6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AG6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AH6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AI6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AJ6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AK6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AL6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AM6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AN6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AO6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AP6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AQ6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AR6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AS6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AT6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AU6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AV6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AW6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AX6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AY6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AZ6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="BA6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>5.907218141265402</v>
-      </c>
-      <c r="H7">
-        <v>6.535114773304773</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>6.546022603510715</v>
+        <v>6.464719402357311</v>
       </c>
       <c r="J7">
-        <v>2.925298061139281</v>
+        <v>4.977756552550394</v>
       </c>
       <c r="K7">
-        <v>2.925298061139281</v>
+        <v>4.493586323244259</v>
       </c>
       <c r="L7">
-        <v>1.816525349942233</v>
+        <v>3.982564147794343</v>
       </c>
       <c r="M7">
-        <v>1.816525349942233</v>
+        <v>2.964652118442856</v>
       </c>
       <c r="N7">
-        <v>1.816525349942233</v>
+        <v>2.943878639034381</v>
       </c>
       <c r="O7">
-        <v>1.816525349942233</v>
+        <v>2.964987684846876</v>
       </c>
       <c r="P7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="Q7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="R7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="S7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="T7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="U7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="V7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="W7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="X7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="Y7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="Z7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AA7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AB7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AC7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AD7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AE7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AF7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AG7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AH7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AI7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AJ7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AK7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AL7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AM7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AN7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AO7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AP7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AQ7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AR7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AS7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AT7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AU7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AV7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AW7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AX7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AY7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AZ7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="BA7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>5.917486466529609</v>
-      </c>
-      <c r="H8">
-        <v>6.325696408067327</v>
-      </c>
-      <c r="I8">
-        <v>6.511263427347003</v>
-      </c>
-      <c r="J8">
-        <v>5.12051970717502</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>5.068263380731586</v>
+        <v>4.845328262081061</v>
       </c>
       <c r="L8">
-        <v>3.441186410406072</v>
+        <v>4.333935035235004</v>
       </c>
       <c r="M8">
-        <v>3.441186410406072</v>
+        <v>3.836273937989332</v>
       </c>
       <c r="N8">
-        <v>5.154576318286241</v>
+        <v>4.334309403335457</v>
       </c>
       <c r="O8">
-        <v>5.154576318286241</v>
+        <v>3.171852776411788</v>
       </c>
       <c r="P8">
-        <v>5.154576318286241</v>
+        <v>1.172679597477866</v>
       </c>
       <c r="Q8">
-        <v>5.154576318286241</v>
+        <v>1.179635526469514</v>
       </c>
       <c r="R8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="S8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="T8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="U8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="V8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="W8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="X8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="Y8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="Z8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AA8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AB8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AC8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AD8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AE8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AF8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AG8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AH8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AI8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AJ8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AK8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AL8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AM8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AN8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AO8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AP8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AQ8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AR8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AS8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AT8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AU8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AV8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AW8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AX8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AY8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AZ8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="BA8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>6.075953108106846</v>
-      </c>
-      <c r="H9">
-        <v>6.474182887234936</v>
-      </c>
-      <c r="I9">
-        <v>6.422943767670297</v>
-      </c>
-      <c r="J9">
-        <v>4.950888348161886</v>
-      </c>
-      <c r="K9">
-        <v>4.325828829470257</v>
-      </c>
-      <c r="L9">
-        <v>3.65682115264816</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>3.608456360804535</v>
+        <v>4.166362093100817</v>
       </c>
       <c r="N9">
-        <v>4.235269442720746</v>
+        <v>4.47502086559235</v>
       </c>
       <c r="O9">
-        <v>4.235269442720746</v>
+        <v>4.030605385534614</v>
       </c>
       <c r="P9">
-        <v>3.237295655668815</v>
+        <v>2.644356903452594</v>
       </c>
       <c r="Q9">
-        <v>3.237295655668815</v>
+        <v>1.773712379859993</v>
       </c>
       <c r="R9">
-        <v>3.237295655668815</v>
+        <v>2.961845079861303</v>
       </c>
       <c r="S9">
-        <v>3.237295655668815</v>
+        <v>2.855441083184784</v>
       </c>
       <c r="T9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="U9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="V9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="W9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="X9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="Y9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="Z9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AA9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AB9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AC9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AD9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AE9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AF9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AG9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AH9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AI9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AJ9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AK9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AL9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AM9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AN9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AO9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AP9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AQ9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AR9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AS9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AT9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AU9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AV9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AW9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AX9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AY9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AZ9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="BA9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>6.464719402357311</v>
-      </c>
-      <c r="J10">
-        <v>4.977756552550372</v>
-      </c>
-      <c r="K10">
-        <v>4.493586323244281</v>
-      </c>
-      <c r="L10">
-        <v>3.982564147794321</v>
-      </c>
-      <c r="M10">
-        <v>2.964652118442834</v>
-      </c>
-      <c r="N10">
-        <v>2.943878639034381</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>2.964987684846854</v>
+        <v>4.31695747535894</v>
       </c>
       <c r="P10">
-        <v>0.9877679306576237</v>
+        <v>3.63156327369063</v>
       </c>
       <c r="Q10">
-        <v>0.9877679306576237</v>
+        <v>3.484530515673834</v>
       </c>
       <c r="R10">
-        <v>0.9877679306576237</v>
+        <v>3.383932287548674</v>
       </c>
       <c r="S10">
-        <v>0.9877679306576237</v>
+        <v>2.533350906619103</v>
       </c>
       <c r="T10">
-        <v>0.9877679306576237</v>
+        <v>2.508469427909921</v>
       </c>
       <c r="U10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="V10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="W10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="X10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="Y10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="Z10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AA10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AB10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AC10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AD10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AE10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AF10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AG10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AH10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AI10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AJ10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AK10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AL10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AM10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AN10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AO10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AP10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AQ10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AR10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AS10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AT10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AU10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AV10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AW10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AX10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AY10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AZ10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="BA10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>4.845328262081017</v>
-      </c>
-      <c r="L11">
-        <v>4.333935035235004</v>
-      </c>
-      <c r="M11">
-        <v>3.83627393798931</v>
-      </c>
-      <c r="N11">
-        <v>4.334309403335435</v>
-      </c>
-      <c r="O11">
-        <v>3.171852776411788</v>
-      </c>
-      <c r="P11">
-        <v>1.172679597477866</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>1.179635526469514</v>
+        <v>3.541845399244936</v>
       </c>
       <c r="R11">
-        <v>2.422799116969476</v>
+        <v>3.767201237311157</v>
       </c>
       <c r="S11">
-        <v>2.422799116969476</v>
+        <v>3.524103740130458</v>
       </c>
       <c r="T11">
-        <v>2.422799116969476</v>
+        <v>3.355044026998977</v>
       </c>
       <c r="U11">
-        <v>2.422799116969476</v>
+        <v>2.661040979345719</v>
       </c>
       <c r="V11">
-        <v>2.422799116969476</v>
+        <v>3.523703831572056</v>
       </c>
       <c r="W11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="X11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="Y11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="Z11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AA11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AB11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AC11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AD11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AE11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AF11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AG11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AH11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AI11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AJ11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AK11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AL11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AM11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AN11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AO11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AP11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AQ11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AR11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AS11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AT11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AU11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AV11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AW11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AX11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AY11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AZ11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="BA11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>4.166362093100817</v>
-      </c>
-      <c r="N12">
-        <v>4.475020865592372</v>
-      </c>
-      <c r="O12">
-        <v>4.030605385534614</v>
-      </c>
-      <c r="P12">
-        <v>2.644356903452572</v>
-      </c>
-      <c r="Q12">
-        <v>1.773712379859993</v>
-      </c>
-      <c r="R12">
-        <v>2.961845079861303</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>2.855441083184784</v>
+        <v>3.666277093058423</v>
       </c>
       <c r="T12">
-        <v>2.851134222122775</v>
+        <v>3.647124793055956</v>
       </c>
       <c r="U12">
-        <v>2.851134222122775</v>
+        <v>3.567108445582057</v>
       </c>
       <c r="V12">
-        <v>2.851134222122775</v>
+        <v>3.749841708124202</v>
       </c>
       <c r="W12">
-        <v>2.851134222122775</v>
+        <v>2.788213251109917</v>
       </c>
       <c r="X12">
-        <v>2.851134222122775</v>
+        <v>3.150198973767537</v>
       </c>
       <c r="Y12">
-        <v>2.851134222122775</v>
+        <v>1.334931695392405</v>
       </c>
       <c r="Z12">
-        <v>2.851134222122775</v>
+        <v>1.178605266817589</v>
       </c>
       <c r="AA12">
-        <v>2.851134222122775</v>
+        <v>1.172618626782262</v>
       </c>
       <c r="AB12">
-        <v>2.851134222122775</v>
+        <v>1.178605266817589</v>
       </c>
       <c r="AC12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AD12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AE12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AF12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AG12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AH12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AI12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AJ12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AK12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AL12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AM12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AN12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AO12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AP12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AQ12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AR12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AS12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AT12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AU12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AV12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AW12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AX12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AY12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AZ12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="BA12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>4.316957475358918</v>
-      </c>
-      <c r="P13">
-        <v>3.631563273690608</v>
-      </c>
-      <c r="Q13">
-        <v>3.484530515673856</v>
-      </c>
-      <c r="R13">
-        <v>3.383932287548697</v>
-      </c>
-      <c r="S13">
-        <v>2.533350906619081</v>
-      </c>
-      <c r="T13">
-        <v>2.508469427909898</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>2.513458516032818</v>
+        <v>3.588870475515815</v>
       </c>
       <c r="V13">
-        <v>2.513458516032818</v>
+        <v>3.655495055608737</v>
       </c>
       <c r="W13">
-        <v>2.513458516032818</v>
+        <v>3.595252063027865</v>
       </c>
       <c r="X13">
-        <v>2.513458516032818</v>
+        <v>3.699072253610125</v>
       </c>
       <c r="Y13">
-        <v>2.513458516032818</v>
+        <v>2.689909849380556</v>
       </c>
       <c r="Z13">
-        <v>2.513458516032818</v>
+        <v>2.186196327763934</v>
       </c>
       <c r="AA13">
-        <v>2.513458516032818</v>
+        <v>1.80511617406458</v>
       </c>
       <c r="AB13">
-        <v>2.513458516032818</v>
+        <v>0.4641929091049102</v>
       </c>
       <c r="AC13">
-        <v>2.513458516032818</v>
+        <v>2.992725808495122</v>
       </c>
       <c r="AD13">
-        <v>2.513458516032818</v>
+        <v>3.047037961814514</v>
       </c>
       <c r="AE13">
-        <v>2.513458516032818</v>
+        <v>3.053142148565624</v>
       </c>
       <c r="AF13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AG13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AH13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AI13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AJ13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AK13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AL13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AM13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AN13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AO13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AP13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AQ13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AR13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AS13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AT13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AU13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AV13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AW13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AX13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AY13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AZ13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="BA13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>3.541845399244936</v>
-      </c>
-      <c r="R14">
-        <v>3.767201237311135</v>
-      </c>
-      <c r="S14">
-        <v>3.524103740130435</v>
-      </c>
-      <c r="T14">
-        <v>3.355044026998955</v>
-      </c>
-      <c r="U14">
-        <v>2.661040979345697</v>
-      </c>
-      <c r="V14">
-        <v>3.523703831572056</v>
-      </c>
-      <c r="W14">
-        <v>3.529772839278755</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>3.529772839278755</v>
+        <v>3.57721436956393</v>
       </c>
       <c r="Y14">
-        <v>3.529772839278755</v>
+        <v>3.275176367660193</v>
       </c>
       <c r="Z14">
-        <v>3.529772839278755</v>
+        <v>3.157051073818096</v>
       </c>
       <c r="AA14">
-        <v>3.529772839278755</v>
+        <v>3.037278170871138</v>
       </c>
       <c r="AB14">
-        <v>3.529772839278755</v>
+        <v>2.550259844884462</v>
       </c>
       <c r="AC14">
-        <v>3.529772839278755</v>
+        <v>2.807906319450781</v>
       </c>
       <c r="AD14">
-        <v>3.529772839278755</v>
+        <v>2.880436144359466</v>
       </c>
       <c r="AE14">
-        <v>3.529772839278755</v>
+        <v>3.113514644866333</v>
       </c>
       <c r="AF14">
-        <v>3.529772839278755</v>
+        <v>2.585454129751641</v>
       </c>
       <c r="AG14">
-        <v>3.529772839278755</v>
+        <v>-0.2157902153366087</v>
       </c>
       <c r="AH14">
-        <v>3.529772839278755</v>
+        <v>-0.22288476972816</v>
       </c>
       <c r="AI14">
-        <v>3.529772839278755</v>
+        <v>-0.2164578521308358</v>
       </c>
       <c r="AJ14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AK14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AL14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AM14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AN14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AO14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AP14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AQ14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AR14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AS14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AT14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AU14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AV14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AW14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AX14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AY14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AZ14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="BA14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>3.666277093058468</v>
-      </c>
-      <c r="T15">
-        <v>3.647124793055978</v>
-      </c>
-      <c r="U15">
-        <v>3.567108445582057</v>
-      </c>
-      <c r="V15">
-        <v>3.74984170812418</v>
-      </c>
-      <c r="W15">
-        <v>2.788213251109939</v>
-      </c>
-      <c r="X15">
-        <v>3.150198973767537</v>
-      </c>
-      <c r="Y15">
-        <v>1.334931695392405</v>
-      </c>
-      <c r="Z15">
-        <v>1.178605266817589</v>
-      </c>
-      <c r="AA15">
-        <v>1.17261862678224</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>1.178605266817589</v>
+        <v>2.988383539327599</v>
       </c>
       <c r="AC15">
-        <v>2.406741336461837</v>
+        <v>3.01043599318298</v>
       </c>
       <c r="AD15">
-        <v>2.406741336461837</v>
+        <v>2.940948884490302</v>
       </c>
       <c r="AE15">
-        <v>2.406741336461837</v>
+        <v>2.798268189979214</v>
       </c>
       <c r="AF15">
-        <v>2.406741336461837</v>
+        <v>2.671828487424377</v>
       </c>
       <c r="AG15">
-        <v>2.406741336461837</v>
+        <v>1.778986693236351</v>
       </c>
       <c r="AH15">
-        <v>2.406741336461837</v>
+        <v>1.685248597850153</v>
       </c>
       <c r="AI15">
-        <v>2.406741336461837</v>
+        <v>1.823608346867833</v>
       </c>
       <c r="AJ15">
-        <v>2.406741336461837</v>
+        <v>-0.3319353158441563</v>
       </c>
       <c r="AK15">
-        <v>2.406741336461837</v>
+        <v>-0.8983050033085527</v>
       </c>
       <c r="AL15">
-        <v>2.406741336461837</v>
+        <v>-1.165854108406639</v>
       </c>
       <c r="AM15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AN15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AO15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AP15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AQ15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AR15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AS15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AT15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AU15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AV15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AW15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AX15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AY15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AZ15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="BA15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>3.588870475515815</v>
-      </c>
-      <c r="V16">
-        <v>3.655495055608715</v>
-      </c>
-      <c r="W16">
-        <v>3.595252063027843</v>
-      </c>
-      <c r="X16">
-        <v>3.699072253610103</v>
-      </c>
-      <c r="Y16">
-        <v>2.689909849380556</v>
-      </c>
-      <c r="Z16">
-        <v>2.186196327763934</v>
-      </c>
-      <c r="AA16">
-        <v>1.80511617406458</v>
-      </c>
-      <c r="AB16">
-        <v>0.4641929091049102</v>
-      </c>
-      <c r="AC16">
-        <v>2.9927258084951</v>
-      </c>
-      <c r="AD16">
-        <v>3.047037961814492</v>
-      </c>
-      <c r="AE16">
-        <v>3.05314214856558</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>3.063996033456418</v>
+        <v>2.803093942632229</v>
       </c>
       <c r="AG16">
-        <v>3.063996033456418</v>
+        <v>2.390667789626777</v>
       </c>
       <c r="AH16">
-        <v>3.063996033456418</v>
+        <v>2.30990627722012</v>
       </c>
       <c r="AI16">
-        <v>3.063996033456418</v>
+        <v>2.215264539440076</v>
       </c>
       <c r="AJ16">
-        <v>3.063996033456418</v>
+        <v>2.167555787027031</v>
       </c>
       <c r="AK16">
-        <v>3.063996033456418</v>
+        <v>2.057272936029797</v>
       </c>
       <c r="AL16">
-        <v>3.063996033456418</v>
+        <v>1.819118980963319</v>
       </c>
       <c r="AM16">
-        <v>3.063996033456418</v>
+        <v>2.70968435494483</v>
       </c>
       <c r="AN16">
-        <v>3.063996033456418</v>
+        <v>0.8695326511123147</v>
       </c>
       <c r="AO16">
-        <v>3.063996033456418</v>
+        <v>2.400664632687732</v>
       </c>
       <c r="AP16">
-        <v>3.063996033456418</v>
+        <v>2.501311189006916</v>
       </c>
       <c r="AQ16">
-        <v>3.063996033456418</v>
+        <v>2.508255083117383</v>
       </c>
       <c r="AR16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AS16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AT16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AU16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AV16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AW16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AX16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AY16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AZ16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="BA16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>3.577214369563952</v>
-      </c>
-      <c r="Y17">
-        <v>3.275176367660193</v>
-      </c>
-      <c r="Z17">
-        <v>3.157051073818073</v>
-      </c>
-      <c r="AA17">
-        <v>3.037278170871094</v>
-      </c>
-      <c r="AB17">
-        <v>2.550259844884462</v>
-      </c>
-      <c r="AC17">
-        <v>2.807906319450781</v>
-      </c>
-      <c r="AD17">
-        <v>2.880436144359444</v>
-      </c>
-      <c r="AE17">
-        <v>3.113514644866355</v>
-      </c>
-      <c r="AF17">
-        <v>2.585454129751663</v>
-      </c>
-      <c r="AG17">
-        <v>-0.2157902153365976</v>
-      </c>
-      <c r="AH17">
-        <v>-0.2228847697281378</v>
-      </c>
-      <c r="AI17">
-        <v>-0.2164578521308247</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>0.6221001279347549</v>
+        <v>2.43467012368126</v>
       </c>
       <c r="AK17">
-        <v>0.6221001279347549</v>
+        <v>2.347652166237779</v>
       </c>
       <c r="AL17">
-        <v>0.6221001279347549</v>
+        <v>2.271841120362739</v>
       </c>
       <c r="AM17">
-        <v>0.6221001279347549</v>
+        <v>2.313497876955384</v>
       </c>
       <c r="AN17">
-        <v>0.6221001279347549</v>
+        <v>1.760401078468776</v>
       </c>
       <c r="AO17">
-        <v>0.6221001279347549</v>
+        <v>2.318981244870932</v>
       </c>
       <c r="AP17">
-        <v>0.6221001279347549</v>
+        <v>2.549024517027942</v>
       </c>
       <c r="AQ17">
-        <v>0.6221001279347549</v>
+        <v>2.708856304473284</v>
       </c>
       <c r="AR17">
-        <v>0.6221001279347549</v>
+        <v>2.384611583901286</v>
       </c>
       <c r="AS17">
-        <v>0.6221001279347549</v>
+        <v>1.046187480688787</v>
       </c>
       <c r="AT17">
-        <v>0.6221001279347549</v>
+        <v>0.6753076481029074</v>
       </c>
       <c r="AU17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AV17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AW17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AX17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AY17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AZ17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="BA17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>2.988383539327599</v>
-      </c>
-      <c r="AC18">
-        <v>3.01043599318298</v>
-      </c>
-      <c r="AD18">
-        <v>2.940948884490324</v>
-      </c>
-      <c r="AE18">
-        <v>2.798268189979214</v>
-      </c>
-      <c r="AF18">
-        <v>2.671828487424377</v>
-      </c>
-      <c r="AG18">
-        <v>1.778986693236351</v>
-      </c>
-      <c r="AH18">
-        <v>1.685248597850153</v>
-      </c>
-      <c r="AI18">
-        <v>1.823608346867833</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.3319353158441452</v>
-      </c>
-      <c r="AK18">
-        <v>-0.8983050033085416</v>
-      </c>
-      <c r="AL18">
-        <v>-1.165854108406617</v>
-      </c>
-      <c r="AM18">
-        <v>-1.00567013592574</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>-1.00567013592574</v>
+        <v>2.212546057349773</v>
       </c>
       <c r="AO18">
-        <v>-1.00567013592574</v>
+        <v>2.385201777331791</v>
       </c>
       <c r="AP18">
-        <v>-1.00567013592574</v>
+        <v>2.345078545687485</v>
       </c>
       <c r="AQ18">
-        <v>-1.00567013592574</v>
+        <v>2.326027472888215</v>
       </c>
       <c r="AR18">
-        <v>-1.00567013592574</v>
+        <v>2.068660354597474</v>
       </c>
       <c r="AS18">
-        <v>-1.00567013592574</v>
+        <v>1.617728533922569</v>
       </c>
       <c r="AT18">
-        <v>-1.00567013592574</v>
+        <v>1.06367661179847</v>
       </c>
       <c r="AU18">
-        <v>-1.00567013592574</v>
+        <v>1.162920200396056</v>
       </c>
       <c r="AV18">
-        <v>-1.00567013592574</v>
+        <v>0.0804689584636975</v>
       </c>
       <c r="AW18">
-        <v>-1.00567013592574</v>
+        <v>1.956836678467844</v>
       </c>
       <c r="AX18">
-        <v>-1.00567013592574</v>
+        <v>2.039329803030099</v>
       </c>
       <c r="AY18">
-        <v>-1.00567013592574</v>
+        <v>2.00811397206242</v>
       </c>
       <c r="AZ18">
-        <v>-1.00567013592574</v>
+        <v>1.751198481007687</v>
       </c>
       <c r="BA18">
-        <v>-1.00567013592574</v>
+        <v>1.751198481007687</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>2.803093942632229</v>
-      </c>
-      <c r="AG19">
-        <v>2.390667789626777</v>
-      </c>
-      <c r="AH19">
-        <v>2.30990627722012</v>
-      </c>
-      <c r="AI19">
-        <v>2.215264539440076</v>
-      </c>
-      <c r="AJ19">
-        <v>2.167555787027031</v>
-      </c>
-      <c r="AK19">
-        <v>2.057272936029797</v>
-      </c>
-      <c r="AL19">
-        <v>1.819118980963297</v>
-      </c>
-      <c r="AM19">
-        <v>2.70968435494483</v>
-      </c>
-      <c r="AN19">
-        <v>0.8695326511122925</v>
-      </c>
-      <c r="AO19">
-        <v>2.400664632687732</v>
-      </c>
-      <c r="AP19">
-        <v>2.501311189006916</v>
-      </c>
-      <c r="AQ19">
-        <v>2.508255083117383</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>2.512564721370381</v>
+        <v>2.129994977843963</v>
       </c>
       <c r="AS19">
-        <v>2.512564721370381</v>
+        <v>1.980449533726003</v>
       </c>
       <c r="AT19">
-        <v>2.512564721370381</v>
+        <v>1.837136202574174</v>
       </c>
       <c r="AU19">
-        <v>2.512564721370381</v>
+        <v>1.752078078216446</v>
       </c>
       <c r="AV19">
-        <v>2.512564721370381</v>
+        <v>1.524741412459929</v>
       </c>
       <c r="AW19">
-        <v>2.512564721370381</v>
+        <v>2.061443511165129</v>
       </c>
       <c r="AX19">
-        <v>2.512564721370381</v>
+        <v>2.272242485304421</v>
       </c>
       <c r="AY19">
-        <v>2.512564721370381</v>
+        <v>1.675092508063614</v>
       </c>
       <c r="AZ19">
-        <v>2.512564721370381</v>
+        <v>3.067084363766437</v>
       </c>
       <c r="BA19">
-        <v>2.512564721370381</v>
+        <v>2.361901723729409</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>2.43467012368126</v>
-      </c>
-      <c r="AK20">
-        <v>2.347652166237757</v>
-      </c>
-      <c r="AL20">
-        <v>2.271841120362716</v>
-      </c>
-      <c r="AM20">
-        <v>2.313497876955384</v>
-      </c>
-      <c r="AN20">
-        <v>1.760401078468798</v>
-      </c>
-      <c r="AO20">
-        <v>2.31898124487091</v>
-      </c>
-      <c r="AP20">
-        <v>2.549024517027965</v>
-      </c>
-      <c r="AQ20">
-        <v>2.708856304473262</v>
-      </c>
-      <c r="AR20">
-        <v>2.384611583901286</v>
-      </c>
-      <c r="AS20">
-        <v>1.046187480688765</v>
-      </c>
-      <c r="AT20">
-        <v>0.6753076481029074</v>
-      </c>
-      <c r="AU20">
-        <v>0.6556783400334387</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.6556783400334387</v>
+        <v>1.748747720411892</v>
       </c>
       <c r="AW20">
-        <v>0.6556783400334387</v>
+        <v>1.915072997558909</v>
       </c>
       <c r="AX20">
-        <v>0.6556783400334387</v>
+        <v>1.927366914802908</v>
       </c>
       <c r="AY20">
-        <v>0.6556783400334387</v>
+        <v>1.971093283008818</v>
       </c>
       <c r="AZ20">
-        <v>0.6556783400334387</v>
+        <v>2.244137191125728</v>
       </c>
       <c r="BA20">
-        <v>0.6556783400334387</v>
+        <v>2.230425161551541</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>2.212546057349796</v>
-      </c>
-      <c r="AO21">
-        <v>2.385201777331791</v>
-      </c>
-      <c r="AP21">
-        <v>2.345078545687485</v>
-      </c>
-      <c r="AQ21">
-        <v>2.326027472888215</v>
-      </c>
-      <c r="AR21">
-        <v>2.068660354597474</v>
-      </c>
-      <c r="AS21">
-        <v>1.617728533922569</v>
-      </c>
-      <c r="AT21">
-        <v>1.06367661179847</v>
-      </c>
-      <c r="AU21">
-        <v>1.162920200396078</v>
-      </c>
-      <c r="AV21">
-        <v>0.08046895846371971</v>
-      </c>
-      <c r="AW21">
-        <v>1.956836678467866</v>
-      </c>
-      <c r="AX21">
-        <v>2.039329803030121</v>
-      </c>
-      <c r="AY21">
-        <v>2.008113972062442</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>1.751198481007687</v>
+        <v>2.028221217124648</v>
       </c>
       <c r="BA21">
-        <v>1.751198481007687</v>
+        <v>2.015554784339768</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>2.129994977843963</v>
-      </c>
-      <c r="AS22">
-        <v>1.980449533725981</v>
-      </c>
-      <c r="AT22">
-        <v>1.837136202574152</v>
-      </c>
-      <c r="AU22">
-        <v>1.752078078216446</v>
-      </c>
-      <c r="AV22">
-        <v>1.524741412459951</v>
-      </c>
-      <c r="AW22">
-        <v>2.061443511165129</v>
-      </c>
-      <c r="AX22">
-        <v>2.272242485304421</v>
-      </c>
-      <c r="AY22">
-        <v>1.675092508063591</v>
-      </c>
-      <c r="AZ22">
-        <v>3.067084363766437</v>
-      </c>
-      <c r="BA22">
-        <v>2.361901723729409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>1.748747720411892</v>
-      </c>
-      <c r="AW23">
-        <v>1.915072997558931</v>
-      </c>
-      <c r="AX23">
-        <v>1.927366914802908</v>
-      </c>
-      <c r="AY23">
-        <v>1.97109328300884</v>
-      </c>
-      <c r="AZ23">
-        <v>2.244137191125728</v>
-      </c>
-      <c r="BA23">
-        <v>2.230425161551541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>2.028221217124648</v>
-      </c>
-      <c r="BA24">
-        <v>2.015554784339746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>1.457481710491582</v>
       </c>
+      <c r="BB3">
+        <v>1.457481710491582</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>1.816525349942233</v>
       </c>
+      <c r="BB4">
+        <v>1.816525349942233</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>5.154576318286241</v>
       </c>
+      <c r="BB5">
+        <v>5.154576318286241</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>3.237295655668815</v>
       </c>
+      <c r="BB6">
+        <v>3.237295655668815</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>0.9877679306576237</v>
       </c>
+      <c r="BB7">
+        <v>0.9877679306576237</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>2.422799116969476</v>
       </c>
+      <c r="BB8">
+        <v>2.422799116969476</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>2.851134222122798</v>
       </c>
+      <c r="BB9">
+        <v>2.851134222122798</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>2.51345851603284</v>
       </c>
+      <c r="BB10">
+        <v>2.51345851603284</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>3.529772839278777</v>
       </c>
+      <c r="BB11">
+        <v>3.529772839278777</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>2.406741336461815</v>
       </c>
+      <c r="BB12">
+        <v>2.406741336461815</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>3.06399603345644</v>
       </c>
+      <c r="BB13">
+        <v>3.06399603345644</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>0.6221001279347327</v>
       </c>
+      <c r="BB14">
+        <v>0.6221001279347327</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>-1.005670135925762</v>
       </c>
+      <c r="BB15">
+        <v>-1.005670135925762</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>2.512564721370358</v>
       </c>
+      <c r="BB16">
+        <v>2.512564721370358</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>0.6556783400334387</v>
       </c>
+      <c r="BB17">
+        <v>0.6556783400334387</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>1.751198481007687</v>
       </c>
+      <c r="BB18">
+        <v>1.751198481007687</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>2.361901723729409</v>
       </c>
+      <c r="BB19">
+        <v>2.46481303148316</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>2.230425161551541</v>
       </c>
+      <c r="BB20">
+        <v>2.509429409292352</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>2.015554784339768</v>
       </c>
+      <c r="BB21">
+        <v>2.050031284743192</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
